--- a/results/comparaison/WM/retardance/mean_raw_data.xlsx
+++ b/results/comparaison/WM/retardance/mean_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,896 +661,1754 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40.72930223586793</v>
+        <v>39.9964061660767</v>
       </c>
       <c r="C2">
-        <v>31.87835286174566</v>
+        <v>18.04522118407069</v>
       </c>
       <c r="D2">
-        <v>21.2748438114536</v>
+        <v>31.4685767257416</v>
       </c>
       <c r="E2">
-        <v>19.68421779220058</v>
+        <v>20.23302036622952</v>
       </c>
       <c r="F2">
-        <v>35.62412722950371</v>
+        <v>18.82291230764076</v>
       </c>
       <c r="G2">
-        <v>14.46300798309532</v>
+        <v>16.01434227735549</v>
       </c>
       <c r="H2">
-        <v>23.2211738090898</v>
+        <v>34.74334707397071</v>
       </c>
       <c r="I2">
-        <v>29.46011675602169</v>
+        <v>13.75082451709014</v>
       </c>
       <c r="J2">
-        <v>32.20921930705097</v>
+        <v>22.24653923013426</v>
       </c>
       <c r="K2">
-        <v>16.34387950423374</v>
+        <v>28.59032731095049</v>
       </c>
       <c r="L2">
-        <v>22.61550145669276</v>
+        <v>31.91343475190571</v>
       </c>
       <c r="M2">
-        <v>36.94013887047986</v>
+        <v>36.23970689048141</v>
       </c>
       <c r="N2">
-        <v>25.0864083811168</v>
+        <v>15.63913442208861</v>
       </c>
       <c r="O2">
-        <v>15.56107455165851</v>
+        <v>22.17627108319776</v>
       </c>
       <c r="P2">
-        <v>20.13795555723988</v>
+        <v>24.1990401533435</v>
       </c>
       <c r="Q2">
-        <v>28.2514993800203</v>
+        <v>14.29286353151189</v>
       </c>
       <c r="R2">
-        <v>31.56944152427942</v>
+        <v>18.81900285206296</v>
       </c>
       <c r="S2">
-        <v>17.90021756398484</v>
+        <v>13.1057146927833</v>
       </c>
       <c r="T2">
-        <v>18.29311043756558</v>
+        <v>17.45536860174218</v>
       </c>
       <c r="U2">
-        <v>15.01642072766279</v>
+        <v>14.35528439561492</v>
       </c>
       <c r="V2">
-        <v>44.98463729743987</v>
+        <v>44.84096600705952</v>
       </c>
       <c r="W2">
-        <v>28.19732347546117</v>
+        <v>27.51484715886511</v>
       </c>
       <c r="X2">
-        <v>25.20693685559617</v>
+        <v>24.94927810746917</v>
       </c>
       <c r="Y2">
-        <v>21.51108587457131</v>
+        <v>20.45734239322464</v>
       </c>
       <c r="Z2">
-        <v>14.96334667734184</v>
+        <v>13.9657652691354</v>
       </c>
       <c r="AA2">
-        <v>28.85265577035143</v>
+        <v>17.87663723819134</v>
       </c>
       <c r="AB2">
-        <v>26.25598575164672</v>
+        <v>21.83781138831788</v>
       </c>
       <c r="AC2">
-        <v>36.69760279546342</v>
+        <v>11.8827904616211</v>
       </c>
       <c r="AD2">
-        <v>38.12573764871137</v>
+        <v>15.26352328117644</v>
       </c>
       <c r="AE2">
-        <v>32.65630878395521</v>
+        <v>20.43862081764703</v>
       </c>
       <c r="AF2">
-        <v>20.24382672538914</v>
+        <v>21.06800233496956</v>
       </c>
       <c r="AG2">
-        <v>8.840797008155311</v>
+        <v>16.94474032059323</v>
       </c>
       <c r="AH2">
-        <v>24.40112883184591</v>
+        <v>15.16640236645406</v>
       </c>
       <c r="AI2">
-        <v>11.76693898285702</v>
+        <v>20.05485917852729</v>
       </c>
       <c r="AJ2">
-        <v>18.04979638367442</v>
+        <v>25.60039574245308</v>
       </c>
       <c r="AK2">
-        <v>19.24945186981024</v>
+        <v>32.24089500719361</v>
       </c>
       <c r="AL2">
-        <v>12.27944126832212</v>
+        <v>22.83156832908917</v>
       </c>
       <c r="AM2">
-        <v>20.38024305251055</v>
+        <v>19.69606860898029</v>
       </c>
       <c r="AN2">
-        <v>18.15718217174986</v>
+        <v>23.81340525078719</v>
       </c>
       <c r="AO2">
-        <v>15.33832978879278</v>
+        <v>17.65110838566828</v>
       </c>
       <c r="AP2">
-        <v>24.80882410742951</v>
+        <v>20.05343004182106</v>
       </c>
       <c r="AQ2">
-        <v>41.27548606154238</v>
+        <v>41.7308935318412</v>
       </c>
       <c r="AR2">
-        <v>34.19940458678479</v>
+        <v>18.94712494540246</v>
       </c>
       <c r="AS2">
-        <v>43.96766682792773</v>
+        <v>4.54991292884969</v>
       </c>
       <c r="AT2">
-        <v>16.6541479200791</v>
+        <v>22.4717468816722</v>
       </c>
       <c r="AU2">
-        <v>21.72352699141392</v>
+        <v>15.46229985186946</v>
       </c>
       <c r="AV2">
-        <v>17.4664807825251</v>
+        <v>44.28800556784185</v>
       </c>
       <c r="AW2">
-        <v>15.62211476428929</v>
+        <v>30.31336473971751</v>
       </c>
       <c r="AX2">
-        <v>20.79690967394755</v>
+        <v>21.88263964398508</v>
       </c>
       <c r="AY2">
-        <v>41.56144012583412</v>
+        <v>15.49824566742941</v>
       </c>
       <c r="AZ2">
-        <v>28.38531674967011</v>
+        <v>18.23063673748534</v>
       </c>
       <c r="BA2">
-        <v>18.87920588332051</v>
+        <v>16.27143798766459</v>
       </c>
       <c r="BB2">
-        <v>9.660195469180424</v>
+        <v>8.204711020662851</v>
       </c>
       <c r="BC2">
-        <v>34.64270621454786</v>
+        <v>48.50742492257268</v>
       </c>
       <c r="BD2">
-        <v>15.23933423350405</v>
+        <v>39.47871857551169</v>
       </c>
       <c r="BE2">
-        <v>18.09721878840953</v>
+        <v>22.1087393900813</v>
       </c>
       <c r="BF2">
-        <v>20.75353095683199</v>
+        <v>16.30431452747564</v>
       </c>
       <c r="BG2">
-        <v>40.11695369728224</v>
+        <v>17.88310029767304</v>
       </c>
       <c r="BH2">
-        <v>19.38925064755</v>
+        <v>13.22307123940136</v>
       </c>
       <c r="BI2">
-        <v>12.0611866707461</v>
+        <v>29.48819943075215</v>
       </c>
       <c r="BJ2">
-        <v>38.49428904174101</v>
+        <v>38.20200466369104</v>
       </c>
       <c r="BK2">
-        <v>9.355546570653772</v>
+        <v>16.84391746593561</v>
       </c>
       <c r="BL2">
-        <v>41.19575737702805</v>
+        <v>17.47273419059907</v>
       </c>
       <c r="BM2">
-        <v>22.67051981343523</v>
+        <v>36.78115955755018</v>
       </c>
       <c r="BN2">
-        <v>31.4914762122419</v>
+        <v>27.1046680408134</v>
       </c>
       <c r="BO2">
-        <v>17.66812818147601</v>
+        <v>14.02732875375841</v>
       </c>
       <c r="BP2">
-        <v>31.12216184290251</v>
+        <v>6.553062637392816</v>
       </c>
       <c r="BQ2">
-        <v>14.53870789935353</v>
+        <v>39.74029395630495</v>
       </c>
       <c r="BR2">
-        <v>38.6832314943322</v>
+        <v>28.11668363918643</v>
       </c>
       <c r="BS2">
-        <v>32.15347105912401</v>
+        <v>9.603875247193605</v>
       </c>
       <c r="BT2">
-        <v>16.8437187215045</v>
+        <v>14.24440116202574</v>
       </c>
       <c r="BU2">
-        <v>13.0690433759967</v>
+        <v>24.63516706551251</v>
       </c>
       <c r="BV2">
-        <v>25.5925079391731</v>
+        <v>33.61648418295851</v>
       </c>
       <c r="BW2">
-        <v>26.45208354218024</v>
+        <v>10.82362258434976</v>
       </c>
       <c r="BX2">
-        <v>40.64828311407034</v>
+        <v>25.76010941770283</v>
       </c>
       <c r="BY2">
-        <v>21.03405354420107</v>
+        <v>5.124357568772326</v>
       </c>
       <c r="BZ2">
-        <v>19.30743590456216</v>
+        <v>30.28187158881298</v>
       </c>
       <c r="CA2">
-        <v>14.55581312850912</v>
+        <v>19.79654210745735</v>
       </c>
       <c r="CB2">
-        <v>26.29605026482984</v>
+        <v>4.610488318011442</v>
       </c>
       <c r="CC2">
-        <v>24.57421926063381</v>
+        <v>20.1201400454046</v>
       </c>
       <c r="CD2">
-        <v>13.09810288521994</v>
+        <v>8.630287590186429</v>
       </c>
       <c r="CE2">
-        <v>10.71095958524418</v>
+        <v>14.90699027157417</v>
       </c>
       <c r="CF2">
-        <v>23.23022691809492</v>
+        <v>6.005980092152601</v>
       </c>
       <c r="CG2">
-        <v>22.10223351164298</v>
+        <v>2.443943440617785</v>
       </c>
       <c r="CH2">
-        <v>15.47215655037626</v>
+        <v>18.6376999879228</v>
       </c>
       <c r="CI2">
-        <v>19.31931828195759</v>
+        <v>15.21306339345342</v>
       </c>
       <c r="CJ2">
-        <v>22.59176222573038</v>
+        <v>13.34426364036569</v>
       </c>
       <c r="CK2">
-        <v>9.730188655903042</v>
+        <v>10.47388988013598</v>
       </c>
       <c r="CL2">
-        <v>12.21977595670443</v>
+        <v>15.24900362877704</v>
       </c>
       <c r="CM2">
-        <v>8.588815369818127</v>
+        <v>5.010174112104018</v>
       </c>
       <c r="CN2">
-        <v>16.67851305846401</v>
+        <v>5.132337971943125</v>
       </c>
       <c r="CO2">
-        <v>9.768461700574155</v>
+        <v>6.57597237980253</v>
       </c>
       <c r="CP2">
-        <v>25.42043361551841</v>
+        <v>9.150547504457869</v>
       </c>
       <c r="CQ2">
-        <v>24.67649530323946</v>
+        <v>11.57488162796395</v>
       </c>
       <c r="CR2">
-        <v>13.60928069191263</v>
+        <v>30.32139022676062</v>
       </c>
       <c r="CS2">
-        <v>30.7556165302366</v>
+        <v>3.890034980071715</v>
+      </c>
+      <c r="CT2">
+        <v>19.19037700832027</v>
+      </c>
+      <c r="CU2">
+        <v>13.65692604015087</v>
+      </c>
+      <c r="CV2">
+        <v>22.5886456266523</v>
+      </c>
+      <c r="CW2">
+        <v>9.055089737806719</v>
       </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.99911510338648</v>
+        <v>26.38228665157277</v>
+      </c>
+      <c r="C3">
+        <v>4.963694600016592</v>
+      </c>
+      <c r="D3">
+        <v>6.879590382292185</v>
       </c>
       <c r="E3">
-        <v>12.57163900803256</v>
+        <v>15.29630709282584</v>
       </c>
       <c r="F3">
-        <v>15.04987650975965</v>
+        <v>11.67482420579777</v>
+      </c>
+      <c r="G3">
+        <v>8.87063051093711</v>
       </c>
       <c r="H3">
-        <v>15.37763234277107</v>
+        <v>14.31905081977325</v>
       </c>
       <c r="I3">
-        <v>15.26411517009244</v>
+        <v>5.375739576518581</v>
+      </c>
+      <c r="J3">
+        <v>14.21776491207234</v>
       </c>
       <c r="K3">
-        <v>12.0090614474503</v>
+        <v>14.63799093041589</v>
+      </c>
+      <c r="L3">
+        <v>12.05570378044618</v>
       </c>
       <c r="M3">
-        <v>24.28962371267419</v>
+        <v>23.44067030831265</v>
       </c>
       <c r="N3">
-        <v>17.26528102276035</v>
+        <v>10.47089460845949</v>
       </c>
       <c r="O3">
-        <v>10.82958708239316</v>
+        <v>21.50936005220897</v>
       </c>
       <c r="P3">
-        <v>12.6952915400514</v>
+        <v>16.08991881492028</v>
+      </c>
+      <c r="Q3">
+        <v>9.901747249182884</v>
+      </c>
+      <c r="R3">
+        <v>11.13451529427296</v>
       </c>
       <c r="S3">
-        <v>9.613923451346963</v>
+        <v>6.447187589101127</v>
+      </c>
+      <c r="T3">
+        <v>6.725057994629594</v>
+      </c>
+      <c r="U3">
+        <v>22.76911887355151</v>
+      </c>
+      <c r="V3">
+        <v>19.64231752176585</v>
       </c>
       <c r="W3">
-        <v>13.88711780024722</v>
+        <v>12.33022469061595</v>
+      </c>
+      <c r="X3">
+        <v>20.89477962507274</v>
       </c>
       <c r="Y3">
-        <v>16.0254330825539</v>
+        <v>15.06140780300067</v>
       </c>
       <c r="Z3">
-        <v>15.01548896094019</v>
+        <v>14.1474175892485</v>
       </c>
       <c r="AA3">
-        <v>16.18212278202154</v>
+        <v>11.92266488712677</v>
       </c>
       <c r="AB3">
-        <v>23.02488864794891</v>
+        <v>10.84293613387421</v>
+      </c>
+      <c r="AC3">
+        <v>6.337712950464794</v>
+      </c>
+      <c r="AD3">
+        <v>12.77326723414317</v>
+      </c>
+      <c r="AF3">
+        <v>19.86459983998373</v>
+      </c>
+      <c r="AG3">
+        <v>11.47379343261108</v>
+      </c>
+      <c r="AH3">
+        <v>4.736453580917604</v>
+      </c>
+      <c r="AI3">
+        <v>14.09343842999107</v>
+      </c>
+      <c r="AJ3">
+        <v>15.05110514467338</v>
+      </c>
+      <c r="AL3">
+        <v>12.02371530212294</v>
+      </c>
+      <c r="AM3">
+        <v>15.97100324858194</v>
+      </c>
+      <c r="AN3">
+        <v>13.74598158714999</v>
+      </c>
+      <c r="AO3">
+        <v>9.9560353791464</v>
+      </c>
+      <c r="AP3">
+        <v>19.7663855147985</v>
       </c>
       <c r="AQ3">
-        <v>35.48504619359849</v>
+        <v>28.00056110976957</v>
       </c>
       <c r="AR3">
-        <v>27.43345074862779</v>
+        <v>6.908865822180198</v>
       </c>
       <c r="AS3">
-        <v>34.08774925277613</v>
+        <v>4.435154391864093</v>
       </c>
       <c r="AT3">
-        <v>13.70401984431418</v>
+        <v>15.55041992113631</v>
       </c>
       <c r="AU3">
-        <v>20.68016762988348</v>
+        <v>5.460092301657226</v>
+      </c>
+      <c r="AV3">
+        <v>34.50962232398719</v>
       </c>
       <c r="AX3">
-        <v>14.95576010241695</v>
+        <v>9.761176723042954</v>
+      </c>
+      <c r="AY3">
+        <v>6.669941396951539</v>
+      </c>
+      <c r="AZ3">
+        <v>18.31821452171616</v>
+      </c>
+      <c r="BA3">
+        <v>9.06076737230576</v>
       </c>
       <c r="BB3">
-        <v>9.153892966346524</v>
+        <v>6.76442747485056</v>
       </c>
       <c r="BC3">
-        <v>30.72228923867248</v>
+        <v>17.01972366389139</v>
+      </c>
+      <c r="BD3">
+        <v>24.02079978439928</v>
+      </c>
+      <c r="BE3">
+        <v>8.313688129604941</v>
       </c>
       <c r="BF3">
-        <v>11.30611308514101</v>
+        <v>10.29476870282704</v>
+      </c>
+      <c r="BG3">
+        <v>14.17052611016228</v>
+      </c>
+      <c r="BH3">
+        <v>8.361691734866801</v>
       </c>
       <c r="BI3">
-        <v>10.69071524099462</v>
+        <v>21.23996797433427</v>
       </c>
       <c r="BJ3">
-        <v>20.44870466236539</v>
+        <v>17.63103920668122</v>
       </c>
       <c r="BK3">
-        <v>8.183562594222996</v>
+        <v>6.105575626181429</v>
+      </c>
+      <c r="BM3">
+        <v>21.20957872177362</v>
+      </c>
+      <c r="BN3">
+        <v>9.319387082022491</v>
       </c>
       <c r="BO3">
-        <v>10.63071460943934</v>
+        <v>12.26027649629709</v>
       </c>
       <c r="BP3">
-        <v>21.25158715828523</v>
+        <v>8.218442507821861</v>
       </c>
       <c r="BQ3">
-        <v>10.12530857425647</v>
+        <v>35.54435008234476</v>
       </c>
       <c r="BR3">
-        <v>22.8888803524855</v>
+        <v>17.77184056794237</v>
       </c>
       <c r="BS3">
-        <v>21.97381237102809</v>
+        <v>8.429786272935633</v>
+      </c>
+      <c r="BT3">
+        <v>11.34851067287563</v>
       </c>
       <c r="BU3">
-        <v>11.82590134841265</v>
+        <v>16.61718951654812</v>
       </c>
       <c r="BV3">
-        <v>19.26977142606972</v>
+        <v>11.14367637237069</v>
+      </c>
+      <c r="BW3">
+        <v>11.32150275932484</v>
+      </c>
+      <c r="BX3">
+        <v>16.03782407024245</v>
+      </c>
+      <c r="BY3">
+        <v>5.829744454531239</v>
+      </c>
+      <c r="BZ3">
+        <v>13.88284193960737</v>
+      </c>
+      <c r="CA3">
+        <v>10.84108383331562</v>
+      </c>
+      <c r="CB3">
+        <v>5.252129994211722</v>
+      </c>
+      <c r="CC3">
+        <v>13.7793509736211</v>
+      </c>
+      <c r="CD3">
+        <v>7.169594303733724</v>
+      </c>
+      <c r="CE3">
+        <v>4.742975650771204</v>
+      </c>
+      <c r="CF3">
+        <v>8.979281717560706</v>
       </c>
       <c r="CG3">
-        <v>31.20154092914498</v>
+        <v>5.621206613825196</v>
+      </c>
+      <c r="CH3">
+        <v>15.27785212011223</v>
+      </c>
+      <c r="CI3">
+        <v>11.53198929682608</v>
       </c>
       <c r="CK3">
-        <v>8.914508992125047</v>
+        <v>9.859930356834001</v>
+      </c>
+      <c r="CL3">
+        <v>6.428485298227114</v>
+      </c>
+      <c r="CM3">
+        <v>7.112755656396212</v>
       </c>
       <c r="CN3">
-        <v>18.70403365553748</v>
+        <v>6.657255176796028</v>
+      </c>
+      <c r="CO3">
+        <v>5.916542548975696</v>
+      </c>
+      <c r="CP3">
+        <v>11.37632083291167</v>
+      </c>
+      <c r="CQ3">
+        <v>17.84594357132527</v>
+      </c>
+      <c r="CR3">
+        <v>17.68750949335633</v>
+      </c>
+      <c r="CS3">
+        <v>9.235676986161678</v>
+      </c>
+      <c r="CT3">
+        <v>5.18972556948167</v>
+      </c>
+      <c r="CU3">
+        <v>4.132866947293978</v>
+      </c>
+      <c r="CV3">
+        <v>14.63408835019024</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.67630871617659</v>
+        <v>25.70859357728323</v>
+      </c>
+      <c r="C4">
+        <v>7.195061987499718</v>
+      </c>
+      <c r="D4">
+        <v>8.548697610823529</v>
       </c>
       <c r="E4">
-        <v>13.16821043743812</v>
+        <v>13.14279048802511</v>
       </c>
       <c r="F4">
-        <v>15.21127210420568</v>
+        <v>11.75969340091516</v>
       </c>
       <c r="H4">
-        <v>17.38797874644428</v>
+        <v>14.0425214347254</v>
       </c>
       <c r="I4">
-        <v>20.92567233010062</v>
+        <v>9.816186798843448</v>
+      </c>
+      <c r="J4">
+        <v>15.87260378224587</v>
       </c>
       <c r="K4">
-        <v>13.85781621934857</v>
+        <v>20.06247719539407</v>
+      </c>
+      <c r="L4">
+        <v>15.39096350985569</v>
       </c>
       <c r="M4">
-        <v>25.76052031858573</v>
+        <v>24.77367064262496</v>
       </c>
       <c r="N4">
-        <v>19.09796666477824</v>
+        <v>11.68701541861172</v>
       </c>
       <c r="O4">
-        <v>11.7061653672937</v>
+        <v>18.17629760718837</v>
       </c>
       <c r="P4">
-        <v>18.84334525890569</v>
+        <v>17.47239278291157</v>
+      </c>
+      <c r="Q4">
+        <v>10.3742454329119</v>
+      </c>
+      <c r="R4">
+        <v>16.7198761056157</v>
       </c>
       <c r="S4">
-        <v>11.4066821145109</v>
+        <v>6.561310204730042</v>
+      </c>
+      <c r="T4">
+        <v>7.678918453004206</v>
+      </c>
+      <c r="U4">
+        <v>14.82981107902012</v>
+      </c>
+      <c r="V4">
+        <v>20.18358922494638</v>
       </c>
       <c r="W4">
-        <v>16.44584013374848</v>
+        <v>14.25650263839148</v>
+      </c>
+      <c r="X4">
+        <v>15.3778298284117</v>
       </c>
       <c r="Y4">
-        <v>17.7129113123235</v>
+        <v>16.377236758287</v>
       </c>
       <c r="Z4">
-        <v>17.5057289062586</v>
+        <v>15.95678979297083</v>
+      </c>
+      <c r="AA4">
+        <v>12.72945430971981</v>
       </c>
       <c r="AB4">
-        <v>14.55206167918436</v>
+        <v>10.46259216726997</v>
+      </c>
+      <c r="AC4">
+        <v>7.405496677222385</v>
+      </c>
+      <c r="AD4">
+        <v>11.0297450487815</v>
+      </c>
+      <c r="AF4">
+        <v>13.83147223488254</v>
+      </c>
+      <c r="AG4">
+        <v>14.31460592608315</v>
       </c>
       <c r="AH4">
-        <v>15.33623242146356</v>
+        <v>4.355298130462649</v>
+      </c>
+      <c r="AI4">
+        <v>9.368343062003303</v>
       </c>
       <c r="AJ4">
-        <v>12.11576382241491</v>
-      </c>
-      <c r="AK4">
-        <v>7.305594102309102</v>
+        <v>9.583466636745827</v>
+      </c>
+      <c r="AL4">
+        <v>13.06005608995641</v>
       </c>
       <c r="AM4">
-        <v>13.30747610915815</v>
+        <v>17.73641801872855</v>
+      </c>
+      <c r="AN4">
+        <v>14.77669476932925</v>
+      </c>
+      <c r="AO4">
+        <v>11.20755161302888</v>
+      </c>
+      <c r="AP4">
+        <v>19.23927062224183</v>
       </c>
       <c r="AQ4">
-        <v>27.99544536149051</v>
+        <v>18.99454214234586</v>
       </c>
       <c r="AR4">
-        <v>19.43946318750625</v>
-      </c>
-      <c r="AS4">
-        <v>24.0638458793001</v>
+        <v>6.212370966095292</v>
       </c>
       <c r="AT4">
-        <v>12.44697858975538</v>
+        <v>9.146180665171324</v>
       </c>
       <c r="AU4">
-        <v>14.78916508167737</v>
-      </c>
-      <c r="AX4">
-        <v>10.5848804707788</v>
+        <v>8.496835368173517</v>
+      </c>
+      <c r="AV4">
+        <v>28.0104852767906</v>
+      </c>
+      <c r="AZ4">
+        <v>19.21845671940254</v>
+      </c>
+      <c r="BA4">
+        <v>10.22239235322686</v>
       </c>
       <c r="BB4">
-        <v>10.57984460542669</v>
+        <v>6.886166681519838</v>
       </c>
       <c r="BC4">
-        <v>29.42639175821624</v>
+        <v>17.0722975612699</v>
+      </c>
+      <c r="BD4">
+        <v>19.04644457492017</v>
+      </c>
+      <c r="BE4">
+        <v>9.988191448676149</v>
+      </c>
+      <c r="BF4">
+        <v>12.26313710763995</v>
+      </c>
+      <c r="BG4">
+        <v>14.64638273108193</v>
+      </c>
+      <c r="BH4">
+        <v>6.722589409326394</v>
       </c>
       <c r="BI4">
-        <v>11.33208202758034</v>
+        <v>25.52099146045232</v>
       </c>
       <c r="BJ4">
-        <v>20.43961614824139</v>
+        <v>16.77941845822452</v>
       </c>
       <c r="BK4">
-        <v>8.829093154776473</v>
+        <v>5.145185435445534</v>
+      </c>
+      <c r="BL4">
+        <v>6.972753083776179</v>
+      </c>
+      <c r="BM4">
+        <v>19.58033948483404</v>
+      </c>
+      <c r="BN4">
+        <v>8.021784931413466</v>
+      </c>
+      <c r="BO4">
+        <v>12.52493322552083</v>
       </c>
       <c r="BP4">
-        <v>24.01844097336626</v>
-      </c>
-      <c r="BS4">
-        <v>23.60930639619464</v>
+        <v>9.541064118811962</v>
+      </c>
+      <c r="BQ4">
+        <v>38.1191270424977</v>
+      </c>
+      <c r="BR4">
+        <v>19.77348370891559</v>
+      </c>
+      <c r="BT4">
+        <v>13.57914182934586</v>
       </c>
       <c r="BU4">
-        <v>13.08997255260111</v>
+        <v>19.71325656695634</v>
       </c>
       <c r="BV4">
-        <v>19.64196180563601</v>
+        <v>12.86023155300745</v>
+      </c>
+      <c r="BW4">
+        <v>11.63960912408676</v>
+      </c>
+      <c r="BX4">
+        <v>17.08847991249444</v>
+      </c>
+      <c r="BY4">
+        <v>5.995748801193831</v>
+      </c>
+      <c r="BZ4">
+        <v>13.20770120996973</v>
+      </c>
+      <c r="CA4">
+        <v>12.25488587325565</v>
+      </c>
+      <c r="CB4">
+        <v>8.571677666897001</v>
+      </c>
+      <c r="CC4">
+        <v>15.5941266651018</v>
+      </c>
+      <c r="CD4">
+        <v>9.014728413043359</v>
+      </c>
+      <c r="CE4">
+        <v>4.692015095549679</v>
       </c>
       <c r="CF4">
-        <v>24.42639531019767</v>
+        <v>9.90811869412987</v>
+      </c>
+      <c r="CG4">
+        <v>4.892541291524708</v>
       </c>
       <c r="CH4">
-        <v>10.9264365927216</v>
+        <v>14.50935182475609</v>
+      </c>
+      <c r="CI4">
+        <v>12.3628714733489</v>
       </c>
       <c r="CK4">
-        <v>10.0381066618888</v>
+        <v>9.129073532520389</v>
+      </c>
+      <c r="CL4">
+        <v>12.56333080915978</v>
+      </c>
+      <c r="CM4">
+        <v>6.431935075553647</v>
       </c>
       <c r="CN4">
-        <v>21.27293416283067</v>
+        <v>7.081886862685367</v>
+      </c>
+      <c r="CO4">
+        <v>4.122670851742384</v>
+      </c>
+      <c r="CP4">
+        <v>11.88593354326729</v>
+      </c>
+      <c r="CQ4">
+        <v>20.15058865814364</v>
+      </c>
+      <c r="CR4">
+        <v>9.535357294913686</v>
+      </c>
+      <c r="CS4">
+        <v>9.31153337638804</v>
+      </c>
+      <c r="CT4">
+        <v>13.40246143401844</v>
+      </c>
+      <c r="CU4">
+        <v>9.043014164960075</v>
+      </c>
+      <c r="CV4">
+        <v>12.11437179803611</v>
+      </c>
+      <c r="CW4">
+        <v>10.19618408711199</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27.38050234354728</v>
+        <v>26.56057979984515</v>
+      </c>
+      <c r="C5">
+        <v>7.307009560027242</v>
       </c>
       <c r="D5">
-        <v>11.85598489710044</v>
+        <v>6.047833587669498</v>
       </c>
       <c r="E5">
-        <v>13.10998928836726</v>
+        <v>10.80138487372914</v>
       </c>
       <c r="F5">
-        <v>19.29757729335977</v>
+        <v>11.79769622464815</v>
       </c>
       <c r="H5">
-        <v>17.9119097861165</v>
+        <v>18.195367640051</v>
       </c>
       <c r="I5">
-        <v>18.46098340439132</v>
+        <v>6.301464576179532</v>
+      </c>
+      <c r="J5">
+        <v>16.49879740651988</v>
       </c>
       <c r="K5">
-        <v>13.53014781965119</v>
+        <v>17.60174499801205</v>
+      </c>
+      <c r="L5">
+        <v>8.922516402918701</v>
       </c>
       <c r="M5">
-        <v>15.66030795244647</v>
+        <v>14.22424774692091</v>
       </c>
       <c r="N5">
-        <v>17.27543427897852</v>
+        <v>11.57821631645723</v>
       </c>
       <c r="O5">
-        <v>9.820528519306023</v>
+        <v>15.38825831630163</v>
       </c>
       <c r="P5">
-        <v>16.26928895360826</v>
+        <v>15.71340836504848</v>
+      </c>
+      <c r="Q5">
+        <v>8.781402828601212</v>
+      </c>
+      <c r="R5">
+        <v>14.28185552247516</v>
       </c>
       <c r="S5">
-        <v>10.49492583748212</v>
+        <v>5.181048404033779</v>
+      </c>
+      <c r="T5">
+        <v>7.633135804224576</v>
+      </c>
+      <c r="U5">
+        <v>12.72127645620066</v>
+      </c>
+      <c r="V5">
+        <v>13.46108773619284</v>
       </c>
       <c r="W5">
-        <v>15.03898298571613</v>
+        <v>13.16423502668318</v>
+      </c>
+      <c r="X5">
+        <v>13.52432311709946</v>
       </c>
       <c r="Y5">
-        <v>18.08721315990409</v>
+        <v>17.02230828776999</v>
       </c>
       <c r="Z5">
-        <v>14.78025039633101</v>
+        <v>13.25985211212238</v>
+      </c>
+      <c r="AA5">
+        <v>12.76909152527947</v>
       </c>
       <c r="AB5">
-        <v>19.27610572776811</v>
+        <v>9.170079637350735</v>
+      </c>
+      <c r="AC5">
+        <v>6.166531263509832</v>
+      </c>
+      <c r="AD5">
+        <v>11.4014158566369</v>
+      </c>
+      <c r="AF5">
+        <v>18.02867037483401</v>
+      </c>
+      <c r="AG5">
+        <v>10.55499728461908</v>
+      </c>
+      <c r="AH5">
+        <v>5.480916205363274</v>
+      </c>
+      <c r="AI5">
+        <v>12.36289104828714</v>
+      </c>
+      <c r="AJ5">
+        <v>13.06137058888916</v>
+      </c>
+      <c r="AL5">
+        <v>10.49688753938422</v>
+      </c>
+      <c r="AM5">
+        <v>13.30269838428477</v>
+      </c>
+      <c r="AN5">
+        <v>11.9706546209081</v>
+      </c>
+      <c r="AO5">
+        <v>7.471034308520505</v>
+      </c>
+      <c r="AP5">
+        <v>18.48802521080044</v>
       </c>
       <c r="AQ5">
-        <v>33.31875311318736</v>
+        <v>21.84874606745199</v>
       </c>
       <c r="AR5">
-        <v>26.0475865060216</v>
+        <v>6.40394486281784</v>
       </c>
       <c r="AS5">
-        <v>28.60844813262223</v>
+        <v>4.357447075810052</v>
       </c>
       <c r="AT5">
-        <v>12.44137519358798</v>
+        <v>13.09555033699968</v>
       </c>
       <c r="AU5">
-        <v>18.78507898876218</v>
-      </c>
-      <c r="AX5">
-        <v>13.10615037554345</v>
+        <v>5.076073788616843</v>
+      </c>
+      <c r="AV5">
+        <v>33.59327870778245</v>
+      </c>
+      <c r="AY5">
+        <v>6.497188628834508</v>
+      </c>
+      <c r="AZ5">
+        <v>17.79981401136038</v>
+      </c>
+      <c r="BA5">
+        <v>15.87238004554162</v>
       </c>
       <c r="BB5">
-        <v>10.10464009797657</v>
+        <v>7.578074266172856</v>
       </c>
       <c r="BC5">
-        <v>23.43368044339718</v>
+        <v>15.89374123170236</v>
+      </c>
+      <c r="BD5">
+        <v>16.70049800857455</v>
       </c>
       <c r="BE5">
-        <v>16.85090491625919</v>
+        <v>5.847323913217903</v>
+      </c>
+      <c r="BF5">
+        <v>13.74193984830945</v>
+      </c>
+      <c r="BG5">
+        <v>11.79761762919533</v>
+      </c>
+      <c r="BH5">
+        <v>6.035937623228474</v>
       </c>
       <c r="BI5">
-        <v>11.81817193986551</v>
+        <v>20.52062086589026</v>
+      </c>
+      <c r="BJ5">
+        <v>12.15334749923844</v>
       </c>
       <c r="BK5">
-        <v>7.775693874723435</v>
+        <v>4.651384444575765</v>
+      </c>
+      <c r="BM5">
+        <v>16.61251133467082</v>
+      </c>
+      <c r="BN5">
+        <v>6.874540963938943</v>
+      </c>
+      <c r="BO5">
+        <v>15.60616667661803</v>
       </c>
       <c r="BP5">
-        <v>19.76043585584639</v>
-      </c>
-      <c r="BS5">
-        <v>21.38482408752048</v>
+        <v>8.702089422326234</v>
+      </c>
+      <c r="BQ5">
+        <v>33.87329039870396</v>
+      </c>
+      <c r="BR5">
+        <v>17.88131299277995</v>
+      </c>
+      <c r="BT5">
+        <v>11.00171097750516</v>
       </c>
       <c r="BU5">
-        <v>11.81446570471652</v>
+        <v>13.87323468291587</v>
       </c>
       <c r="BV5">
-        <v>24.09898380035178</v>
+        <v>12.36223319758035</v>
+      </c>
+      <c r="BW5">
+        <v>10.56834185714908</v>
+      </c>
+      <c r="BX5">
+        <v>13.10847350720963</v>
+      </c>
+      <c r="BY5">
+        <v>6.67670053114467</v>
       </c>
       <c r="BZ5">
-        <v>11.09764234959205</v>
+        <v>12.24722193707674</v>
+      </c>
+      <c r="CA5">
+        <v>10.91138467384641</v>
+      </c>
+      <c r="CB5">
+        <v>6.414904533916859</v>
       </c>
       <c r="CC5">
-        <v>16.81407507558137</v>
+        <v>17.9720397977752</v>
+      </c>
+      <c r="CD5">
+        <v>7.780837883847775</v>
+      </c>
+      <c r="CE5">
+        <v>5.515566903011495</v>
+      </c>
+      <c r="CF5">
+        <v>14.49630188231382</v>
+      </c>
+      <c r="CG5">
+        <v>5.020833847215206</v>
       </c>
       <c r="CH5">
-        <v>12.89910835409803</v>
+        <v>12.89997507098476</v>
+      </c>
+      <c r="CI5">
+        <v>13.48580863961173</v>
       </c>
       <c r="CK5">
-        <v>9.42392931548804</v>
+        <v>11.45109696423278</v>
+      </c>
+      <c r="CL5">
+        <v>5.804252571568596</v>
+      </c>
+      <c r="CM5">
+        <v>7.754028591933007</v>
+      </c>
+      <c r="CN5">
+        <v>8.757105505901427</v>
+      </c>
+      <c r="CO5">
+        <v>5.677485709000952</v>
       </c>
       <c r="CP5">
-        <v>21.01391808794816</v>
+        <v>13.92964977940546</v>
+      </c>
+      <c r="CQ5">
+        <v>23.42710052667377</v>
+      </c>
+      <c r="CR5">
+        <v>21.82904447886892</v>
       </c>
       <c r="CS5">
-        <v>23.29604427949675</v>
+        <v>10.33501329123254</v>
+      </c>
+      <c r="CT5">
+        <v>6.17654796376147</v>
+      </c>
+      <c r="CU5">
+        <v>3.885001378321677</v>
+      </c>
+      <c r="CV5">
+        <v>20.2429671831651</v>
+      </c>
+      <c r="CW5">
+        <v>12.48589840832883</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.04705843109933</v>
+        <v>24.12877327312688</v>
+      </c>
+      <c r="C6">
+        <v>12.78924656095588</v>
+      </c>
+      <c r="D6">
+        <v>10.32213832467885</v>
       </c>
       <c r="E6">
-        <v>17.2019274146905</v>
+        <v>12.72566856071701</v>
       </c>
       <c r="F6">
-        <v>29.20356036589433</v>
+        <v>15.61173819640967</v>
       </c>
       <c r="H6">
-        <v>20.62855612747565</v>
+        <v>27.89717941565209</v>
       </c>
       <c r="I6">
-        <v>24.94955747917082</v>
+        <v>4.668612095249945</v>
+      </c>
+      <c r="J6">
+        <v>19.33545698251767</v>
       </c>
       <c r="K6">
-        <v>13.28807560870527</v>
+        <v>23.84725719249905</v>
+      </c>
+      <c r="L6">
+        <v>11.00501787789269</v>
       </c>
       <c r="M6">
-        <v>13.8005460764232</v>
+        <v>11.94588057366549</v>
       </c>
       <c r="N6">
-        <v>21.69527425185727</v>
+        <v>11.01477403561035</v>
+      </c>
+      <c r="O6">
+        <v>14.12485104856494</v>
       </c>
       <c r="P6">
-        <v>20.57867511875159</v>
+        <v>20.6067049482718</v>
+      </c>
+      <c r="Q6">
+        <v>7.633325875196117</v>
+      </c>
+      <c r="R6">
+        <v>18.81894689978532</v>
       </c>
       <c r="S6">
-        <v>10.4421967425585</v>
+        <v>4.986774349692465</v>
+      </c>
+      <c r="T6">
+        <v>7.198697689168838</v>
+      </c>
+      <c r="U6">
+        <v>15.17679170652386</v>
+      </c>
+      <c r="V6">
+        <v>10.97475161119858</v>
       </c>
       <c r="W6">
-        <v>19.15821966818225</v>
+        <v>17.55181756601158</v>
+      </c>
+      <c r="X6">
+        <v>7.832667233527357</v>
       </c>
       <c r="Y6">
-        <v>18.68897361637372</v>
+        <v>17.41484361867658</v>
       </c>
       <c r="Z6">
-        <v>22.12407483417843</v>
+        <v>21.01580051990616</v>
       </c>
       <c r="AA6">
-        <v>18.65405019929294</v>
+        <v>13.58592007401192</v>
       </c>
       <c r="AB6">
-        <v>27.86896159284373</v>
+        <v>10.6400159694051</v>
+      </c>
+      <c r="AC6">
+        <v>7.232493205317407</v>
+      </c>
+      <c r="AD6">
+        <v>12.43911654653402</v>
+      </c>
+      <c r="AF6">
+        <v>18.26393416275935</v>
+      </c>
+      <c r="AG6">
+        <v>10.79679236063384</v>
+      </c>
+      <c r="AH6">
+        <v>7.71072824543011</v>
+      </c>
+      <c r="AI6">
+        <v>12.33181222257728</v>
+      </c>
+      <c r="AJ6">
+        <v>14.39344027314211</v>
+      </c>
+      <c r="AK6">
+        <v>11.71501198615802</v>
+      </c>
+      <c r="AL6">
+        <v>13.72639130482375</v>
+      </c>
+      <c r="AM6">
+        <v>17.51840505114403</v>
+      </c>
+      <c r="AN6">
+        <v>16.23576372301786</v>
+      </c>
+      <c r="AO6">
+        <v>10.4633144141261</v>
+      </c>
+      <c r="AP6">
+        <v>25.74193962226721</v>
       </c>
       <c r="AQ6">
-        <v>45.08523916233084</v>
+        <v>26.74756340815966</v>
       </c>
       <c r="AR6">
-        <v>26.00967018773902</v>
+        <v>8.281321527811967</v>
       </c>
       <c r="AS6">
-        <v>35.82279723464359</v>
+        <v>5.272714259514403</v>
       </c>
       <c r="AT6">
-        <v>13.64498619045143</v>
+        <v>20.15521111838243</v>
       </c>
       <c r="AU6">
-        <v>19.39456839667628</v>
+        <v>5.007668442346807</v>
+      </c>
+      <c r="AV6">
+        <v>45.13138565720318</v>
+      </c>
+      <c r="AW6">
+        <v>11.95584714166293</v>
       </c>
       <c r="AX6">
-        <v>13.25400412715712</v>
+        <v>9.128988378173114</v>
+      </c>
+      <c r="AY6">
+        <v>6.514459484260118</v>
       </c>
       <c r="AZ6">
-        <v>19.97805748417583</v>
+        <v>17.13312497465777</v>
+      </c>
+      <c r="BA6">
+        <v>7.937141721387282</v>
       </c>
       <c r="BB6">
-        <v>9.772802279805878</v>
+        <v>6.111026906262242</v>
+      </c>
+      <c r="BC6">
+        <v>16.79243892216427</v>
+      </c>
+      <c r="BD6">
+        <v>21.31596046477006</v>
       </c>
       <c r="BE6">
-        <v>15.66612165111626</v>
+        <v>7.506205038062721</v>
+      </c>
+      <c r="BF6">
+        <v>10.03026613365711</v>
+      </c>
+      <c r="BG6">
+        <v>12.51507263704555</v>
+      </c>
+      <c r="BH6">
+        <v>5.501360878746362</v>
       </c>
       <c r="BI6">
-        <v>10.0525424422728</v>
+        <v>19.80447483206014</v>
       </c>
       <c r="BJ6">
-        <v>23.36262984844585</v>
+        <v>15.24975673482846</v>
       </c>
       <c r="BK6">
-        <v>7.109325433016674</v>
+        <v>4.176297341522653</v>
+      </c>
+      <c r="BL6">
+        <v>6.431764519150514</v>
+      </c>
+      <c r="BM6">
+        <v>23.35771021695598</v>
+      </c>
+      <c r="BN6">
+        <v>8.880836384940261</v>
+      </c>
+      <c r="BO6">
+        <v>13.92097365989458</v>
       </c>
       <c r="BP6">
-        <v>25.13543395738539</v>
+        <v>8.121129949627289</v>
+      </c>
+      <c r="BQ6">
+        <v>35.41412547885022</v>
       </c>
       <c r="BR6">
-        <v>25.1317815528042</v>
+        <v>17.67504500232011</v>
       </c>
       <c r="BS6">
-        <v>22.14362902703211</v>
+        <v>7.769158820853495</v>
+      </c>
+      <c r="BT6">
+        <v>11.86423250286683</v>
       </c>
       <c r="BU6">
-        <v>10.42614069784495</v>
+        <v>18.9825302817904</v>
       </c>
       <c r="BV6">
-        <v>18.70900600731476</v>
+        <v>10.71369412850678</v>
+      </c>
+      <c r="BW6">
+        <v>9.934750285029599</v>
+      </c>
+      <c r="BX6">
+        <v>16.0048649060283</v>
+      </c>
+      <c r="BY6">
+        <v>8.580134663621894</v>
       </c>
       <c r="BZ6">
-        <v>11.47093847291487</v>
+        <v>11.16070480244217</v>
       </c>
       <c r="CA6">
-        <v>12.08132702400025</v>
+        <v>12.26721042950913</v>
+      </c>
+      <c r="CB6">
+        <v>6.201430060730158</v>
       </c>
       <c r="CC6">
-        <v>17.84655710770196</v>
+        <v>17.17664728389832</v>
+      </c>
+      <c r="CD6">
+        <v>9.213100362591916</v>
+      </c>
+      <c r="CE6">
+        <v>5.747710962520965</v>
       </c>
       <c r="CF6">
-        <v>30.91012648993718</v>
+        <v>9.373327757107347</v>
       </c>
       <c r="CG6">
-        <v>31.21087010478483</v>
+        <v>7.986423163844344</v>
       </c>
       <c r="CH6">
-        <v>11.4068849443232</v>
+        <v>14.63681888531826</v>
+      </c>
+      <c r="CI6">
+        <v>15.13505861914656</v>
       </c>
       <c r="CK6">
-        <v>8.500555773501656</v>
+        <v>11.73836627322649</v>
+      </c>
+      <c r="CL6">
+        <v>6.550067230886425</v>
+      </c>
+      <c r="CM6">
+        <v>8.446769494429049</v>
       </c>
       <c r="CN6">
-        <v>23.94502446160467</v>
+        <v>7.301365834213916</v>
+      </c>
+      <c r="CO6">
+        <v>5.234941882208514</v>
       </c>
       <c r="CP6">
-        <v>17.3838752782826</v>
+        <v>11.69031347040879</v>
+      </c>
+      <c r="CQ6">
+        <v>15.44901215803281</v>
       </c>
       <c r="CR6">
-        <v>8.061513235370766</v>
+        <v>18.60296449822315</v>
       </c>
       <c r="CS6">
-        <v>20.13164875451864</v>
+        <v>9.142790800418656</v>
+      </c>
+      <c r="CT6">
+        <v>7.566124037681114</v>
+      </c>
+      <c r="CU6">
+        <v>3.694109993392865</v>
+      </c>
+      <c r="CV6">
+        <v>16.53166352474729</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.86462365094103</v>
+        <v>22.55930207745278</v>
+      </c>
+      <c r="C7">
+        <v>4.684974334773425</v>
+      </c>
+      <c r="D7">
+        <v>6.663177163879826</v>
       </c>
       <c r="E7">
-        <v>13.74379469249358</v>
+        <v>9.305828504978235</v>
       </c>
       <c r="F7">
-        <v>26.62446633010352</v>
+        <v>11.9452821967746</v>
       </c>
       <c r="H7">
-        <v>17.82578086056141</v>
+        <v>25.74605842708573</v>
       </c>
       <c r="I7">
-        <v>20.6850205440799</v>
+        <v>9.412287296776496</v>
+      </c>
+      <c r="J7">
+        <v>16.1056803915084</v>
       </c>
       <c r="K7">
-        <v>14.5602860244613</v>
+        <v>19.26303879425474</v>
+      </c>
+      <c r="L7">
+        <v>7.731872261812157</v>
       </c>
       <c r="M7">
-        <v>13.83021677041376</v>
+        <v>12.25059985729042</v>
       </c>
       <c r="N7">
-        <v>15.84025876323785</v>
+        <v>12.42633292941293</v>
       </c>
       <c r="O7">
-        <v>11.09626341798277</v>
+        <v>10.02980812962379</v>
       </c>
       <c r="P7">
-        <v>14.74108242008151</v>
+        <v>13.73236693634064</v>
+      </c>
+      <c r="Q7">
+        <v>10.01387451633789</v>
+      </c>
+      <c r="R7">
+        <v>11.68632626357245</v>
       </c>
       <c r="S7">
-        <v>13.32570972448958</v>
+        <v>6.492877514198736</v>
+      </c>
+      <c r="T7">
+        <v>7.846364698375528</v>
+      </c>
+      <c r="U7">
+        <v>10.77826220852279</v>
+      </c>
+      <c r="V7">
+        <v>12.41151747484208</v>
       </c>
       <c r="W7">
-        <v>16.71482978485296</v>
+        <v>14.53160580195359</v>
+      </c>
+      <c r="X7">
+        <v>9.936915810682017</v>
       </c>
       <c r="Y7">
-        <v>16.98754286707958</v>
+        <v>15.37881167302525</v>
       </c>
       <c r="Z7">
-        <v>11.93559482483548</v>
+        <v>9.916557682689771</v>
+      </c>
+      <c r="AA7">
+        <v>12.15648086153029</v>
       </c>
       <c r="AB7">
-        <v>14.64207607682665</v>
+        <v>11.18355334561782</v>
+      </c>
+      <c r="AC7">
+        <v>7.527977673148959</v>
+      </c>
+      <c r="AD7">
+        <v>9.760643207210617</v>
+      </c>
+      <c r="AE7">
+        <v>20.00632943041111</v>
+      </c>
+      <c r="AF7">
+        <v>15.35159186503163</v>
+      </c>
+      <c r="AG7">
+        <v>16.27178079259802</v>
+      </c>
+      <c r="AH7">
+        <v>6.804577480278956</v>
+      </c>
+      <c r="AI7">
+        <v>11.12866378390818</v>
+      </c>
+      <c r="AJ7">
+        <v>11.04743794601585</v>
       </c>
       <c r="AK7">
-        <v>9.357397270172486</v>
+        <v>14.81164446797186</v>
+      </c>
+      <c r="AL7">
+        <v>11.77053286899533</v>
+      </c>
+      <c r="AM7">
+        <v>15.45339993032778</v>
+      </c>
+      <c r="AN7">
+        <v>13.57633895883389</v>
+      </c>
+      <c r="AO7">
+        <v>10.44096073346354</v>
+      </c>
+      <c r="AP7">
+        <v>17.64366935036739</v>
       </c>
       <c r="AQ7">
-        <v>27.43132287399808</v>
+        <v>13.51702171893737</v>
       </c>
       <c r="AR7">
-        <v>19.46795819265954</v>
+        <v>8.535713846197067</v>
       </c>
       <c r="AS7">
-        <v>20.45351768896351</v>
+        <v>3.978296587797249</v>
       </c>
       <c r="AT7">
-        <v>11.00273829419933</v>
+        <v>8.700588416110572</v>
       </c>
       <c r="AU7">
-        <v>16.06579654726458</v>
+        <v>7.249297762782838</v>
+      </c>
+      <c r="AV7">
+        <v>25.88192356420752</v>
+      </c>
+      <c r="AW7">
+        <v>11.89018329641068</v>
       </c>
       <c r="AX7">
-        <v>12.09934390110625</v>
+        <v>11.16033299672307</v>
+      </c>
+      <c r="AY7">
+        <v>6.434079801680571</v>
+      </c>
+      <c r="AZ7">
+        <v>14.31373575374246</v>
+      </c>
+      <c r="BA7">
+        <v>11.20876876718067</v>
       </c>
       <c r="BB7">
-        <v>10.97178212497274</v>
+        <v>6.200375341013557</v>
       </c>
       <c r="BC7">
-        <v>26.14741173666222</v>
+        <v>13.89776519954586</v>
+      </c>
+      <c r="BD7">
+        <v>15.17100016558334</v>
+      </c>
+      <c r="BE7">
+        <v>7.378021697058444</v>
+      </c>
+      <c r="BF7">
+        <v>10.20731751322672</v>
+      </c>
+      <c r="BG7">
+        <v>10.36374123432697</v>
+      </c>
+      <c r="BH7">
+        <v>4.214943261411305</v>
       </c>
       <c r="BI7">
-        <v>11.63373953090014</v>
+        <v>18.36560161746309</v>
       </c>
       <c r="BJ7">
-        <v>18.32414267907116</v>
+        <v>11.5217073658185</v>
       </c>
       <c r="BK7">
-        <v>7.985667043993621</v>
+        <v>3.153573066681727</v>
+      </c>
+      <c r="BL7">
+        <v>7.279020220962693</v>
+      </c>
+      <c r="BM7">
+        <v>17.5978074007267</v>
+      </c>
+      <c r="BN7">
+        <v>6.746351398780034</v>
+      </c>
+      <c r="BO7">
+        <v>15.04279370798323</v>
       </c>
       <c r="BP7">
-        <v>14.78934840452363</v>
+        <v>6.50415422722779</v>
+      </c>
+      <c r="BQ7">
+        <v>32.29420745464358</v>
       </c>
       <c r="BR7">
-        <v>17.86336652735567</v>
-      </c>
-      <c r="BS7">
-        <v>19.7328979801862</v>
+        <v>15.6931300600139</v>
+      </c>
+      <c r="BT7">
+        <v>12.71516451740334</v>
       </c>
       <c r="BU7">
-        <v>12.22408434399298</v>
+        <v>17.21266120752768</v>
       </c>
       <c r="BV7">
-        <v>18.9190262620515</v>
+        <v>11.13368321664546</v>
+      </c>
+      <c r="BW7">
+        <v>10.61479427337849</v>
+      </c>
+      <c r="BX7">
+        <v>12.49437371399656</v>
+      </c>
+      <c r="BY7">
+        <v>5.911507418894205</v>
+      </c>
+      <c r="BZ7">
+        <v>11.337202391808</v>
+      </c>
+      <c r="CA7">
+        <v>9.4761282964425</v>
+      </c>
+      <c r="CB7">
+        <v>5.80393118313425</v>
+      </c>
+      <c r="CC7">
+        <v>16.94628029161882</v>
+      </c>
+      <c r="CD7">
+        <v>8.422901871847817</v>
+      </c>
+      <c r="CE7">
+        <v>5.672297855713968</v>
       </c>
       <c r="CF7">
-        <v>30.05895118411637</v>
+        <v>9.249878318689269</v>
       </c>
       <c r="CG7">
-        <v>30.72919133733465</v>
+        <v>5.757333440030357</v>
       </c>
       <c r="CH7">
-        <v>8.547965255013523</v>
+        <v>13.16178374906733</v>
+      </c>
+      <c r="CI7">
+        <v>10.30158943776427</v>
+      </c>
+      <c r="CK7">
+        <v>10.76530738868853</v>
+      </c>
+      <c r="CL7">
+        <v>5.347303066293843</v>
+      </c>
+      <c r="CM7">
+        <v>7.230811932890261</v>
+      </c>
+      <c r="CN7">
+        <v>8.518742535675095</v>
+      </c>
+      <c r="CO7">
+        <v>5.41563963520348</v>
+      </c>
+      <c r="CP7">
+        <v>9.628691627015121</v>
+      </c>
+      <c r="CQ7">
+        <v>15.03462770945668</v>
+      </c>
+      <c r="CR7">
+        <v>14.54682682678596</v>
+      </c>
+      <c r="CS7">
+        <v>6.980576591466432</v>
+      </c>
+      <c r="CT7">
+        <v>5.01600598791187</v>
+      </c>
+      <c r="CU7">
+        <v>3.677105525759536</v>
+      </c>
+      <c r="CV7">
+        <v>13.4317687587656</v>
       </c>
     </row>
   </sheetData>
